--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Plg-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Plg-Itgb1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
     <t>Plg</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,13 +519,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -540,10 +540,10 @@
         <v>1.397277</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.9660838355812051</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.9660838355812051</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>112.513392</v>
+        <v>61.04160633333334</v>
       </c>
       <c r="N2">
-        <v>337.540176</v>
+        <v>183.124819</v>
       </c>
       <c r="O2">
-        <v>0.3275312977368564</v>
+        <v>0.2043613460574534</v>
       </c>
       <c r="P2">
-        <v>0.3275312977368564</v>
+        <v>0.2043613460574534</v>
       </c>
       <c r="Q2">
-        <v>52.404124944528</v>
+        <v>28.43067752420701</v>
       </c>
       <c r="R2">
-        <v>471.637124500752</v>
+        <v>255.8760977178631</v>
       </c>
       <c r="S2">
-        <v>0.3275312977368564</v>
+        <v>0.1974301930437226</v>
       </c>
       <c r="T2">
-        <v>0.3275312977368564</v>
+        <v>0.1974301930437226</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,10 +581,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
@@ -602,10 +602,10 @@
         <v>1.397277</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.9660838355812051</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.9660838355812051</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,10 +620,10 @@
         <v>318.943398</v>
       </c>
       <c r="O3">
-        <v>0.3094859589441663</v>
+        <v>0.3559304658284363</v>
       </c>
       <c r="P3">
-        <v>0.3094859589441664</v>
+        <v>0.3559304658284363</v>
       </c>
       <c r="Q3">
         <v>49.516919369694</v>
@@ -632,10 +632,10 @@
         <v>445.6522743272461</v>
       </c>
       <c r="S3">
-        <v>0.3094859589441663</v>
+        <v>0.3438586696277408</v>
       </c>
       <c r="T3">
-        <v>0.3094859589441664</v>
+        <v>0.3438586696277409</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,13 +643,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
         <v>21</v>
-      </c>
-      <c r="C4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" t="s">
-        <v>24</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -664,10 +664,10 @@
         <v>1.397277</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.9660838355812051</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.9660838355812051</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,214 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>124.6916553333333</v>
+        <v>131.3384093333333</v>
       </c>
       <c r="N4">
-        <v>374.074966</v>
+        <v>394.015228</v>
       </c>
       <c r="O4">
-        <v>0.3629827433189773</v>
+        <v>0.4397081881141102</v>
       </c>
       <c r="P4">
-        <v>0.3629827433189773</v>
+        <v>0.4397081881141103</v>
       </c>
       <c r="Q4">
-        <v>58.07626069639801</v>
+        <v>61.172046192684</v>
       </c>
       <c r="R4">
-        <v>522.6863462675821</v>
+        <v>550.548415734156</v>
       </c>
       <c r="S4">
-        <v>0.3629827433189773</v>
+        <v>0.4247949729097417</v>
       </c>
       <c r="T4">
-        <v>0.3629827433189773</v>
+        <v>0.4247949729097417</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G5">
+        <v>0.01635133333333333</v>
+      </c>
+      <c r="H5">
+        <v>0.049054</v>
+      </c>
+      <c r="I5">
+        <v>0.03391616441879487</v>
+      </c>
+      <c r="J5">
+        <v>0.03391616441879487</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>61.04160633333334</v>
+      </c>
+      <c r="N5">
+        <v>183.124819</v>
+      </c>
+      <c r="O5">
+        <v>0.2043613460574534</v>
+      </c>
+      <c r="P5">
+        <v>0.2043613460574534</v>
+      </c>
+      <c r="Q5">
+        <v>0.9981116523584445</v>
+      </c>
+      <c r="R5">
+        <v>8.983004871226001</v>
+      </c>
+      <c r="S5">
+        <v>0.006931153013730826</v>
+      </c>
+      <c r="T5">
+        <v>0.006931153013730826</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G6">
+        <v>0.01635133333333333</v>
+      </c>
+      <c r="H6">
+        <v>0.049054</v>
+      </c>
+      <c r="I6">
+        <v>0.03391616441879487</v>
+      </c>
+      <c r="J6">
+        <v>0.03391616441879487</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>106.314466</v>
+      </c>
+      <c r="N6">
+        <v>318.943398</v>
+      </c>
+      <c r="O6">
+        <v>0.3559304658284363</v>
+      </c>
+      <c r="P6">
+        <v>0.3559304658284363</v>
+      </c>
+      <c r="Q6">
+        <v>1.738383271721333</v>
+      </c>
+      <c r="R6">
+        <v>15.645449445492</v>
+      </c>
+      <c r="S6">
+        <v>0.01207179620069549</v>
+      </c>
+      <c r="T6">
+        <v>0.01207179620069549</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G7">
+        <v>0.01635133333333333</v>
+      </c>
+      <c r="H7">
+        <v>0.049054</v>
+      </c>
+      <c r="I7">
+        <v>0.03391616441879487</v>
+      </c>
+      <c r="J7">
+        <v>0.03391616441879487</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>131.3384093333333</v>
+      </c>
+      <c r="N7">
+        <v>394.015228</v>
+      </c>
+      <c r="O7">
+        <v>0.4397081881141102</v>
+      </c>
+      <c r="P7">
+        <v>0.4397081881141103</v>
+      </c>
+      <c r="Q7">
+        <v>2.147558110479111</v>
+      </c>
+      <c r="R7">
+        <v>19.328022994312</v>
+      </c>
+      <c r="S7">
+        <v>0.01491321520436855</v>
+      </c>
+      <c r="T7">
+        <v>0.01491321520436855</v>
       </c>
     </row>
   </sheetData>
